--- a/Happiness Raw Data.xlsx
+++ b/Happiness Raw Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Desktop\Units\FIT3179\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Documents\GitHub\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EE0C6D-4BEE-4032-9062-883213CDC620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81D2B6F-AC48-40C1-A511-F5BDC3047EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="72">
   <si>
     <t>Australia Score</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Source: https://www.kaggle.com/datasets/mathurinache/world-happiness-report</t>
   </si>
 </sst>
 </file>
@@ -686,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AG147"/>
+  <dimension ref="B1:AK147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,7 +727,7 @@
     <col min="33" max="33" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
@@ -822,7 +825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B2" s="8">
         <v>2015</v>
       </c>
@@ -921,7 +924,7 @@
         <v>0.66556999999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B3" s="8">
         <v>2016</v>
       </c>
@@ -1019,8 +1022,11 @@
       <c r="AG3" s="10">
         <v>0.56837000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="AK3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B4" s="8">
         <v>2017</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>0.60160738229751598</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B5" s="8">
         <v>2018</v>
       </c>
@@ -1218,7 +1224,7 @@
         <v>0.64700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B6" s="8">
         <v>2019</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B7" s="8">
         <v>2020</v>
       </c>
@@ -1416,7 +1422,7 @@
         <v>0.62187719299999999</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B8" s="8">
         <v>2021</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>0.64700000000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>2022</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="10" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E10" s="8">
         <v>2015</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.35">
       <c r="E11" s="8">
         <v>2015</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.35">
       <c r="E12" s="8">
         <v>2021</v>
       </c>
@@ -1777,7 +1783,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:37" x14ac:dyDescent="0.35">
       <c r="E13" s="8">
         <v>2021</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:37" x14ac:dyDescent="0.35">
       <c r="E14" s="8">
         <v>2021</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:37" x14ac:dyDescent="0.35">
       <c r="E15" s="8">
         <v>2021</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:37" x14ac:dyDescent="0.35">
       <c r="E16" s="8">
         <v>2021</v>
       </c>

--- a/Happiness Raw Data.xlsx
+++ b/Happiness Raw Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Documents\GitHub\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81D2B6F-AC48-40C1-A511-F5BDC3047EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D9DA64-4AD3-4700-9F7D-ED86E5DB18CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="53">
   <si>
     <t>Australia Score</t>
   </si>
@@ -154,64 +154,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
   </si>
   <si>
     <t>HappinessScore</t>
@@ -691,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AK147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -774,19 +717,19 @@
         <v>36</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="V1" s="6">
         <v>2016</v>
@@ -801,28 +744,28 @@
         <v>2022</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.35">
@@ -848,20 +791,20 @@
         <v>18</v>
       </c>
       <c r="I2" s="3">
-        <v>1.9</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="J2" s="3">
-        <v>1.2030000000000001</v>
+        <v>1.258</v>
       </c>
       <c r="K2" s="3">
-        <v>0.77200000000000002</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="L2" s="3">
-        <v>0.67600000000000005</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="M2" s="14">
         <f xml:space="preserve"> SUM(I2:L2)</f>
-        <v>4.5510000000000002</v>
+        <v>4.6609999999999996</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>32</v>
@@ -870,16 +813,16 @@
         <v>7.2</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="14">
-        <v>7.1619999999999999</v>
+        <v>7.8209999999999997</v>
       </c>
       <c r="R2" s="14">
-        <v>1.9</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="S2" s="14">
-        <v>1.2030000000000001</v>
+        <v>1.258</v>
       </c>
       <c r="T2" s="15" t="s">
         <v>38</v>
@@ -969,16 +912,16 @@
         <v>7.1619999999999999</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="14">
-        <v>7.5119999999999996</v>
+        <v>7.6360000000000001</v>
       </c>
       <c r="R3" s="14">
-        <v>2.0259999999999998</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="S3" s="14">
-        <v>1.226</v>
+        <v>1.2430000000000001</v>
       </c>
       <c r="T3" s="15" t="s">
         <v>38</v>
@@ -1023,7 +966,7 @@
         <v>0.56837000000000004</v>
       </c>
       <c r="AK3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.35">
@@ -1071,16 +1014,16 @@
         <v>6.4770000000000003</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="14">
-        <v>6.9429999999999996</v>
+        <v>7.5570000000000004</v>
       </c>
       <c r="R4" s="14">
-        <v>1.867</v>
+        <v>1.9359999999999999</v>
       </c>
       <c r="S4" s="14">
-        <v>1.143</v>
+        <v>1.32</v>
       </c>
       <c r="T4" s="15" t="s">
         <v>38</v>
@@ -1170,19 +1113,19 @@
         <v>6.4550000000000001</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="14">
-        <v>6.5229999999999997</v>
+        <v>7.5119999999999996</v>
       </c>
       <c r="R5" s="14">
-        <v>1.87</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="S5" s="14">
-        <v>1.0920000000000001</v>
+        <v>1.226</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U5" s="8" t="s">
         <v>7</v>
@@ -1269,19 +1212,19 @@
         <v>6.4459999999999997</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="14">
-        <v>6.4459999999999997</v>
+        <v>7.415</v>
       </c>
       <c r="R6" s="14">
-        <v>1.804</v>
+        <v>1.9450000000000001</v>
       </c>
       <c r="S6" s="14">
-        <v>1.204</v>
+        <v>1.206</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U6" s="8" t="s">
         <v>8</v>
@@ -1368,19 +1311,19 @@
         <v>6.391</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="14">
-        <v>6.234</v>
+        <v>7.4039999999999999</v>
       </c>
       <c r="R7" s="14">
-        <v>1.6679999999999999</v>
+        <v>2.2090000000000001</v>
       </c>
       <c r="S7" s="14">
-        <v>1.22</v>
+        <v>1.155</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U7" s="8" t="s">
         <v>9</v>
@@ -1467,19 +1410,19 @@
         <v>6.3410000000000002</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="14">
-        <v>6.0709999999999997</v>
+        <v>7.3840000000000003</v>
       </c>
       <c r="R8" s="14">
-        <v>1.591</v>
+        <v>1.92</v>
       </c>
       <c r="S8" s="14">
-        <v>1.1160000000000001</v>
+        <v>1.204</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U8" s="8" t="s">
         <v>10</v>
@@ -1566,19 +1509,19 @@
         <v>6.234</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="14">
-        <v>5.9480000000000004</v>
+        <v>7.3650000000000002</v>
       </c>
       <c r="R9" s="14">
-        <v>1.7030000000000001</v>
+        <v>1.9970000000000001</v>
       </c>
       <c r="S9" s="14">
-        <v>0.98</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U9" s="8" t="s">
         <v>11</v>
@@ -1656,19 +1599,19 @@
         <v>6.18</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="14">
-        <v>5.891</v>
+        <v>7.3639999999999999</v>
       </c>
       <c r="R10" s="14">
-        <v>1.5349999999999999</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="S10" s="14">
-        <v>1.0960000000000001</v>
+        <v>1.2210000000000001</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U10" s="8" t="s">
         <v>12</v>
@@ -1709,19 +1652,19 @@
         <v>6.1779999999999999</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="14">
-        <v>5.7110000000000003</v>
+        <v>7.2</v>
       </c>
       <c r="R11" s="14">
-        <v>1.6890000000000001</v>
+        <v>1.8520000000000001</v>
       </c>
       <c r="S11" s="14">
-        <v>0.93799999999999994</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="T11" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U11" s="11" t="s">
         <v>13</v>
@@ -1762,19 +1705,19 @@
         <v>6.125</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="14">
-        <v>5.5590000000000002</v>
+        <v>7.1630000000000003</v>
       </c>
       <c r="R12" s="14">
-        <v>1.397</v>
+        <v>1.931</v>
       </c>
       <c r="S12" s="14">
-        <v>0.86499999999999999</v>
+        <v>1.165</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z12" s="8">
         <v>7.1630000000000003</v>
@@ -1800,19 +1743,19 @@
         <v>6.1230000000000002</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="14">
-        <v>5.3769999999999998</v>
+        <v>7.1619999999999999</v>
       </c>
       <c r="R13" s="14">
-        <v>0.98399999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="S13" s="14">
-        <v>0.78400000000000003</v>
+        <v>1.2030000000000001</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z13" s="8">
         <v>7.1619999999999999</v>
@@ -1838,19 +1781,19 @@
         <v>6.0860000000000003</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="14">
-        <v>5.194</v>
+        <v>7.0410000000000004</v>
       </c>
       <c r="R14" s="14">
-        <v>1.425</v>
+        <v>2.129</v>
       </c>
       <c r="S14" s="14">
-        <v>1.0880000000000001</v>
+        <v>1.1659999999999999</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z14" s="8">
         <v>7.0410000000000004</v>
@@ -1876,19 +1819,19 @@
         <v>6.0629999999999997</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="14">
-        <v>5.0460000000000003</v>
+        <v>7.0339999999999998</v>
       </c>
       <c r="R15" s="14">
-        <v>0.93300000000000005</v>
+        <v>1.9239999999999999</v>
       </c>
       <c r="S15" s="14">
-        <v>0.53</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z15" s="8">
         <v>7.0339999999999998</v>
@@ -1914,19 +1857,19 @@
         <v>5.9480000000000004</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="Q16" s="14">
-        <v>4.7439999999999998</v>
+        <v>7.0250000000000004</v>
       </c>
       <c r="R16" s="14">
-        <v>1.7070000000000001</v>
+        <v>1.8859999999999999</v>
       </c>
       <c r="S16" s="14">
-        <v>0.86499999999999999</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="T16" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z16" s="8">
         <v>7.0250000000000004</v>
@@ -1952,19 +1895,19 @@
         <v>5.8570000000000002</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="Q17" s="14">
-        <v>4.4790000000000001</v>
+        <v>6.9770000000000003</v>
       </c>
       <c r="R17" s="14">
-        <v>0.79200000000000004</v>
+        <v>1.982</v>
       </c>
       <c r="S17" s="14">
-        <v>0.48299999999999998</v>
+        <v>1.1819999999999999</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z17" s="8">
         <v>6.9770000000000003</v>
@@ -1990,19 +1933,19 @@
         <v>5.8280000000000003</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="14">
-        <v>4.3620000000000001</v>
+        <v>6.9429999999999996</v>
       </c>
       <c r="R18" s="14">
-        <v>1.415</v>
+        <v>1.867</v>
       </c>
       <c r="S18" s="14">
-        <v>0.93400000000000005</v>
+        <v>1.143</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z18" s="8">
         <v>6.9429999999999996</v>
@@ -2028,19 +1971,19 @@
         <v>5.8209999999999997</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="14">
-        <v>4.1520000000000001</v>
+        <v>6.92</v>
       </c>
       <c r="R19" s="14">
-        <v>1.3240000000000001</v>
+        <v>1.8149999999999999</v>
       </c>
       <c r="S19" s="14">
-        <v>0.72399999999999998</v>
+        <v>1.26</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z19" s="8">
         <v>6.92</v>
@@ -2066,19 +2009,19 @@
         <v>5.7679999999999998</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="14">
-        <v>2.9950000000000001</v>
+        <v>6.8049999999999997</v>
       </c>
       <c r="R20" s="14">
-        <v>0.94699999999999995</v>
+        <v>1.907</v>
       </c>
       <c r="S20" s="14">
-        <v>0.69</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z20" s="8">
         <v>6.8049999999999997</v>
@@ -2104,16 +2047,16 @@
         <v>5.5469999999999997</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="Q21" s="14">
-        <v>7.415</v>
+        <v>6.6870000000000003</v>
       </c>
       <c r="R21" s="14">
-        <v>1.9450000000000001</v>
+        <v>1.863</v>
       </c>
       <c r="S21" s="14">
-        <v>1.206</v>
+        <v>1.2190000000000001</v>
       </c>
       <c r="T21" s="15" t="s">
         <v>38</v>
@@ -2132,6 +2075,18 @@
       <c r="O22" s="2">
         <v>5.4740000000000002</v>
       </c>
+      <c r="P22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>6.6470000000000002</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1.0289999999999999</v>
+      </c>
       <c r="Z22" s="8">
         <v>6.6470000000000002</v>
       </c>
@@ -2146,6 +2101,18 @@
       <c r="O23" s="2">
         <v>5.4589999999999996</v>
       </c>
+      <c r="P23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>6.63</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1.2490000000000001</v>
+      </c>
       <c r="Z23" s="8">
         <v>6.63</v>
       </c>
@@ -2160,6 +2127,18 @@
       <c r="O24" s="2">
         <v>5.399</v>
       </c>
+      <c r="P24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>6.5819999999999999</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1.054</v>
+      </c>
       <c r="Z24" s="8">
         <v>6.5819999999999999</v>
       </c>
@@ -2174,6 +2153,18 @@
       <c r="O25" s="2">
         <v>5.3769999999999998</v>
       </c>
+      <c r="P25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>6.5759999999999996</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1.998</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0.98</v>
+      </c>
       <c r="Z25" s="8">
         <v>6.5759999999999996</v>
       </c>
@@ -2188,6 +2179,18 @@
       <c r="O26" s="2">
         <v>5.3710000000000004</v>
       </c>
+      <c r="P26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>6.5229999999999997</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1.0920000000000001</v>
+      </c>
       <c r="Z26" s="8">
         <v>6.5229999999999997</v>
       </c>
@@ -2202,6 +2205,18 @@
       <c r="O27" s="2">
         <v>5.1989999999999998</v>
       </c>
+      <c r="P27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>6.5119999999999996</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1.897</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1.095</v>
+      </c>
       <c r="Z27" s="8">
         <v>6.5119999999999996</v>
       </c>
@@ -2216,6 +2231,18 @@
       <c r="O28" s="2">
         <v>5.1989999999999998</v>
       </c>
+      <c r="P28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>6.48</v>
+      </c>
+      <c r="R28" s="2">
+        <v>2.149</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1.127</v>
+      </c>
       <c r="Z28" s="8">
         <v>6.48</v>
       </c>
@@ -2230,6 +2257,18 @@
       <c r="O29" s="2">
         <v>5.173</v>
       </c>
+      <c r="P29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>6.4770000000000003</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="S29" s="2">
+        <v>1.006</v>
+      </c>
       <c r="Z29" s="8">
         <v>6.4770000000000003</v>
       </c>
@@ -2244,6 +2283,18 @@
       <c r="O30" s="2">
         <v>5.0839999999999996</v>
       </c>
+      <c r="P30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>6.476</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1.2110000000000001</v>
+      </c>
       <c r="Z30" s="8">
         <v>6.476</v>
       </c>
@@ -2257,6 +2308,18 @@
       </c>
       <c r="O31" s="2">
         <v>4.9729999999999999</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>6.4740000000000002</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1.615</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1.18</v>
       </c>
       <c r="Z31" s="8">
         <v>6.4740000000000002</v>
@@ -2272,6 +2335,18 @@
       <c r="O32" s="2">
         <v>6.5119999999999996</v>
       </c>
+      <c r="P32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>6.4669999999999996</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1.052</v>
+      </c>
       <c r="Z32" s="8">
         <v>6.4669999999999996</v>
       </c>
@@ -2286,6 +2361,18 @@
       <c r="O33" s="2">
         <v>6.0389999999999997</v>
       </c>
+      <c r="P33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>6.4550000000000001</v>
+      </c>
+      <c r="R33" s="2">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0.94899999999999995</v>
+      </c>
       <c r="Z33" s="8">
         <v>6.4550000000000001</v>
       </c>
@@ -2300,6 +2387,18 @@
       <c r="O34" s="2">
         <v>5.9349999999999996</v>
       </c>
+      <c r="P34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>6.4470000000000001</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="S34" s="2">
+        <v>1.169</v>
+      </c>
       <c r="Z34" s="8">
         <v>6.4470000000000001</v>
       </c>
@@ -2314,6 +2413,18 @@
       <c r="O35" s="2">
         <v>5.7610000000000001</v>
       </c>
+      <c r="P35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>6.4459999999999997</v>
+      </c>
+      <c r="R35" s="2">
+        <v>1.804</v>
+      </c>
+      <c r="S35" s="2">
+        <v>1.204</v>
+      </c>
       <c r="Z35" s="8">
         <v>6.4459999999999997</v>
       </c>
@@ -2328,6 +2439,18 @@
       <c r="O36" s="2">
         <v>5.585</v>
       </c>
+      <c r="P36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>6.391</v>
+      </c>
+      <c r="R36" s="2">
+        <v>1.736</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1.232</v>
+      </c>
       <c r="Z36" s="8">
         <v>6.391</v>
       </c>
@@ -2342,6 +2465,18 @@
       <c r="O37" s="2">
         <v>5.4249999999999998</v>
       </c>
+      <c r="P37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>6.3410000000000002</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="S37" s="2">
+        <v>1.232</v>
+      </c>
       <c r="Z37" s="8">
         <v>6.3410000000000002</v>
       </c>
@@ -2356,6 +2491,18 @@
       <c r="O38" s="2">
         <v>6.5819999999999999</v>
       </c>
+      <c r="P38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>6.3090000000000002</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="S38" s="2">
+        <v>1.107</v>
+      </c>
       <c r="Z38" s="8">
         <v>6.3090000000000002</v>
       </c>
@@ -2370,6 +2517,18 @@
       <c r="O39" s="2">
         <v>6.4740000000000002</v>
       </c>
+      <c r="P39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>6.2930000000000001</v>
+      </c>
+      <c r="R39" s="2">
+        <v>1.462</v>
+      </c>
+      <c r="S39" s="2">
+        <v>1.044</v>
+      </c>
       <c r="Z39" s="8">
         <v>6.2930000000000001</v>
       </c>
@@ -2384,6 +2543,18 @@
       <c r="O40" s="2">
         <v>6.3090000000000002</v>
       </c>
+      <c r="P40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>6.2619999999999996</v>
+      </c>
+      <c r="R40" s="2">
+        <v>1.274</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0.83099999999999996</v>
+      </c>
       <c r="Z40" s="8">
         <v>6.2619999999999996</v>
       </c>
@@ -2398,6 +2569,18 @@
       <c r="O41" s="2">
         <v>6.2930000000000001</v>
       </c>
+      <c r="P41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>6.234</v>
+      </c>
+      <c r="R41" s="2">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="S41" s="2">
+        <v>1.22</v>
+      </c>
       <c r="Z41" s="8">
         <v>6.234</v>
       </c>
@@ -2412,6 +2595,18 @@
       <c r="O42" s="2">
         <v>6.2619999999999996</v>
       </c>
+      <c r="P42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>6.2210000000000001</v>
+      </c>
+      <c r="R42" s="2">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0.90900000000000003</v>
+      </c>
       <c r="Z42" s="8">
         <v>6.2210000000000001</v>
       </c>
@@ -2426,6 +2621,18 @@
       <c r="O43" s="2">
         <v>6.1719999999999997</v>
       </c>
+      <c r="P43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>6.18</v>
+      </c>
+      <c r="R43" s="2">
+        <v>1.732</v>
+      </c>
+      <c r="S43" s="2">
+        <v>1.2210000000000001</v>
+      </c>
       <c r="Z43" s="8">
         <v>6.18</v>
       </c>
@@ -2440,6 +2647,18 @@
       <c r="O44" s="2">
         <v>6.165</v>
       </c>
+      <c r="P44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>6.1779999999999999</v>
+      </c>
+      <c r="R44" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="S44" s="2">
+        <v>1.0860000000000001</v>
+      </c>
       <c r="Z44" s="8">
         <v>6.1779999999999999</v>
       </c>
@@ -2454,6 +2673,18 @@
       <c r="O45" s="2">
         <v>6.1280000000000001</v>
       </c>
+      <c r="P45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>6.1719999999999997</v>
+      </c>
+      <c r="R45" s="2">
+        <v>1.651</v>
+      </c>
+      <c r="S45" s="2">
+        <v>1.08</v>
+      </c>
       <c r="Z45" s="8">
         <v>6.1719999999999997</v>
       </c>
@@ -2468,6 +2699,18 @@
       <c r="O46" s="2">
         <v>6.12</v>
       </c>
+      <c r="P46" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>6.165</v>
+      </c>
+      <c r="R46" s="2">
+        <v>1.105</v>
+      </c>
+      <c r="S46" s="2">
+        <v>1.0289999999999999</v>
+      </c>
       <c r="Z46" s="8">
         <v>6.165</v>
       </c>
@@ -2482,6 +2725,18 @@
       <c r="O47" s="2">
         <v>6.0220000000000002</v>
       </c>
+      <c r="P47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>6.1280000000000001</v>
+      </c>
+      <c r="R47" s="2">
+        <v>1.552</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0.88600000000000001</v>
+      </c>
       <c r="Z47" s="8">
         <v>6.1280000000000001</v>
       </c>
@@ -2496,6 +2751,18 @@
       <c r="O48" s="2">
         <v>5.9669999999999996</v>
       </c>
+      <c r="P48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>6.125</v>
+      </c>
+      <c r="R48" s="2">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="S48" s="2">
+        <v>1.1830000000000001</v>
+      </c>
       <c r="Z48" s="8">
         <v>6.125</v>
       </c>
@@ -2510,6 +2777,18 @@
       <c r="O49" s="2">
         <v>5.85</v>
       </c>
+      <c r="P49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>6.1230000000000002</v>
+      </c>
+      <c r="R49" s="2">
+        <v>1.758</v>
+      </c>
+      <c r="S49" s="2">
+        <v>1.1739999999999999</v>
+      </c>
       <c r="Z49" s="8">
         <v>6.1230000000000002</v>
       </c>
@@ -2524,6 +2803,18 @@
       <c r="O50" s="2">
         <v>5.7809999999999997</v>
       </c>
+      <c r="P50" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="R50" s="2">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0.76800000000000002</v>
+      </c>
       <c r="Z50" s="8">
         <v>6.12</v>
       </c>
@@ -2538,6 +2829,18 @@
       <c r="O51" s="2">
         <v>5.7370000000000001</v>
       </c>
+      <c r="P51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>6.1059999999999999</v>
+      </c>
+      <c r="R51" s="2">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0.98299999999999998</v>
+      </c>
       <c r="Z51" s="8">
         <v>6.1059999999999999</v>
       </c>
@@ -2552,6 +2855,18 @@
       <c r="O52" s="2">
         <v>5.6</v>
       </c>
+      <c r="P52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>6.0860000000000003</v>
+      </c>
+      <c r="R52" s="2">
+        <v>1.748</v>
+      </c>
+      <c r="S52" s="2">
+        <v>1.2330000000000001</v>
+      </c>
       <c r="Z52" s="8">
         <v>6.0860000000000003</v>
       </c>
@@ -2566,6 +2881,18 @@
       <c r="O53" s="2">
         <v>5.5780000000000003</v>
       </c>
+      <c r="P53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>6.0709999999999997</v>
+      </c>
+      <c r="R53" s="2">
+        <v>1.591</v>
+      </c>
+      <c r="S53" s="2">
+        <v>1.1160000000000001</v>
+      </c>
       <c r="Z53" s="8">
         <v>6.0709999999999997</v>
       </c>
@@ -2580,6 +2907,18 @@
       <c r="O54" s="2">
         <v>5.5590000000000002</v>
       </c>
+      <c r="P54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>6.0629999999999997</v>
+      </c>
+      <c r="R54" s="2">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="S54" s="2">
+        <v>1.0920000000000001</v>
+      </c>
       <c r="Z54" s="8">
         <v>6.0629999999999997</v>
       </c>
@@ -2594,6 +2933,18 @@
       <c r="O55" s="2">
         <v>5.5330000000000004</v>
       </c>
+      <c r="P55" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>6.0389999999999997</v>
+      </c>
+      <c r="R55" s="2">
+        <v>1.835</v>
+      </c>
+      <c r="S55" s="2">
+        <v>1.089</v>
+      </c>
       <c r="Z55" s="8">
         <v>6.0389999999999997</v>
       </c>
@@ -2608,6 +2959,18 @@
       <c r="O56" s="2">
         <v>4.9249999999999998</v>
       </c>
+      <c r="P56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>6.0220000000000002</v>
+      </c>
+      <c r="R56" s="2">
+        <v>1.111</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0.88500000000000001</v>
+      </c>
       <c r="Z56" s="8">
         <v>6.0220000000000002</v>
       </c>
@@ -2622,6 +2985,18 @@
       <c r="O57" s="2">
         <v>7.3639999999999999</v>
       </c>
+      <c r="P57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>6.016</v>
+      </c>
+      <c r="R57" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="S57" s="2">
+        <v>1.0780000000000001</v>
+      </c>
       <c r="Z57" s="8">
         <v>6.016</v>
       </c>
@@ -2636,6 +3011,18 @@
       <c r="O58" s="2">
         <v>6.6470000000000002</v>
       </c>
+      <c r="P58" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>5.9669999999999996</v>
+      </c>
+      <c r="R58" s="2">
+        <v>1.5920000000000001</v>
+      </c>
+      <c r="S58" s="2">
+        <v>1.1020000000000001</v>
+      </c>
       <c r="Z58" s="8">
         <v>5.9669999999999996</v>
       </c>
@@ -2650,6 +3037,18 @@
       <c r="O59" s="2">
         <v>6.5759999999999996</v>
       </c>
+      <c r="P59" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>5.9480000000000004</v>
+      </c>
+      <c r="R59" s="2">
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0.98</v>
+      </c>
       <c r="Z59" s="8">
         <v>5.9480000000000004</v>
       </c>
@@ -2664,6 +3063,18 @@
       <c r="O60" s="2">
         <v>6.5229999999999997</v>
       </c>
+      <c r="P60" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>5.9349999999999996</v>
+      </c>
+      <c r="R60" s="2">
+        <v>1.851</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0.88600000000000001</v>
+      </c>
       <c r="Z60" s="8">
         <v>5.9349999999999996</v>
       </c>
@@ -2678,6 +3089,18 @@
       <c r="O61" s="2">
         <v>6.2210000000000001</v>
       </c>
+      <c r="P61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>5.9039999999999999</v>
+      </c>
+      <c r="R61" s="2">
+        <v>1.268</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0.91200000000000003</v>
+      </c>
       <c r="Z61" s="8">
         <v>5.9039999999999999</v>
       </c>
@@ -2692,6 +3115,18 @@
       <c r="O62" s="2">
         <v>6.1059999999999999</v>
       </c>
+      <c r="P62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>5.891</v>
+      </c>
+      <c r="R62" s="2">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="S62" s="2">
+        <v>1.0960000000000001</v>
+      </c>
       <c r="Z62" s="8">
         <v>5.891</v>
       </c>
@@ -2706,6 +3141,18 @@
       <c r="O63" s="2">
         <v>5.4669999999999996</v>
       </c>
+      <c r="P63" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>5.8570000000000002</v>
+      </c>
+      <c r="R63" s="2">
+        <v>1.417</v>
+      </c>
+      <c r="S63" s="2">
+        <v>1.008</v>
+      </c>
       <c r="Z63" s="8">
         <v>5.8570000000000002</v>
       </c>
@@ -2720,6 +3167,18 @@
       <c r="O64" s="2">
         <v>5.33</v>
       </c>
+      <c r="P64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>5.85</v>
+      </c>
+      <c r="R64" s="2">
+        <v>1.296</v>
+      </c>
+      <c r="S64" s="2">
+        <v>1.0449999999999999</v>
+      </c>
       <c r="Z64" s="8">
         <v>5.85</v>
       </c>
@@ -2734,6 +3193,18 @@
       <c r="O65" s="2">
         <v>5.1219999999999999</v>
       </c>
+      <c r="P65" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>5.8280000000000003</v>
+      </c>
+      <c r="R65" s="2">
+        <v>1.069</v>
+      </c>
+      <c r="S65" s="2">
+        <v>1.109</v>
+      </c>
       <c r="Z65" s="8">
         <v>5.8280000000000003</v>
       </c>
@@ -2748,6 +3219,18 @@
       <c r="O66" s="2">
         <v>5.0599999999999996</v>
       </c>
+      <c r="P66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>5.8209999999999997</v>
+      </c>
+      <c r="R66" s="2">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="S66" s="2">
+        <v>1.157</v>
+      </c>
       <c r="Z66" s="8">
         <v>5.8209999999999997</v>
       </c>
@@ -2762,6 +3245,18 @@
       <c r="O67" s="2">
         <v>4.9409999999999998</v>
       </c>
+      <c r="P67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>5.7809999999999997</v>
+      </c>
+      <c r="R67" s="2">
+        <v>1.452</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0.92900000000000005</v>
+      </c>
       <c r="Z67" s="8">
         <v>5.7809999999999997</v>
       </c>
@@ -2776,6 +3271,18 @@
       <c r="O68" s="2">
         <v>4.8879999999999999</v>
       </c>
+      <c r="P68" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>5.7679999999999998</v>
+      </c>
+      <c r="R68" s="2">
+        <v>1.468</v>
+      </c>
+      <c r="S68" s="2">
+        <v>1.0680000000000001</v>
+      </c>
       <c r="Z68" s="8">
         <v>5.7679999999999998</v>
       </c>
@@ -2790,6 +3297,18 @@
       <c r="O69" s="2">
         <v>4.7439999999999998</v>
       </c>
+      <c r="P69" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>5.7610000000000001</v>
+      </c>
+      <c r="R69" s="2">
+        <v>1.393</v>
+      </c>
+      <c r="S69" s="2">
+        <v>1.1970000000000001</v>
+      </c>
       <c r="Z69" s="8">
         <v>5.7610000000000001</v>
       </c>
@@ -2804,6 +3323,18 @@
       <c r="O70" s="2">
         <v>4.516</v>
       </c>
+      <c r="P70" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>5.7370000000000001</v>
+      </c>
+      <c r="R70" s="2">
+        <v>1.538</v>
+      </c>
+      <c r="S70" s="2">
+        <v>1.0029999999999999</v>
+      </c>
       <c r="Z70" s="8">
         <v>5.7370000000000001</v>
       </c>
@@ -2818,6 +3349,18 @@
       <c r="O71" s="2">
         <v>4.4829999999999997</v>
       </c>
+      <c r="P71" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>5.7110000000000003</v>
+      </c>
+      <c r="R71" s="2">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="S71" s="2">
+        <v>0.93799999999999994</v>
+      </c>
       <c r="Z71" s="8">
         <v>5.7110000000000003</v>
       </c>
@@ -2832,6 +3375,18 @@
       <c r="O72" s="2">
         <v>4.2880000000000003</v>
       </c>
+      <c r="P72" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="R72" s="2">
+        <v>1.256</v>
+      </c>
+      <c r="S72" s="2">
+        <v>0.88</v>
+      </c>
       <c r="Z72" s="8">
         <v>5.6</v>
       </c>
@@ -2846,6 +3401,18 @@
       <c r="O73" s="2">
         <v>4.1970000000000001</v>
       </c>
+      <c r="P73" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>5.585</v>
+      </c>
+      <c r="R73" s="2">
+        <v>1.508</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0.95799999999999996</v>
+      </c>
       <c r="Z73" s="8">
         <v>5.585</v>
       </c>
@@ -2860,6 +3427,18 @@
       <c r="O74" s="2">
         <v>4.1520000000000001</v>
       </c>
+      <c r="P74" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>5.5780000000000003</v>
+      </c>
+      <c r="R74" s="2">
+        <v>1.409</v>
+      </c>
+      <c r="S74" s="2">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="Z74" s="8">
         <v>5.5780000000000003</v>
       </c>
@@ -2874,6 +3453,18 @@
       <c r="O75" s="2">
         <v>2.9550000000000001</v>
       </c>
+      <c r="P75" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>5.5590000000000002</v>
+      </c>
+      <c r="R75" s="2">
+        <v>1.397</v>
+      </c>
+      <c r="S75" s="2">
+        <v>0.86499999999999999</v>
+      </c>
       <c r="Z75" s="8">
         <v>5.5590000000000002</v>
       </c>
@@ -2888,6 +3479,18 @@
       <c r="O76" s="2">
         <v>7.0250000000000004</v>
       </c>
+      <c r="P76" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>5.5469999999999997</v>
+      </c>
+      <c r="R76" s="2">
+        <v>1.573</v>
+      </c>
+      <c r="S76" s="2">
+        <v>1.0229999999999999</v>
+      </c>
       <c r="Z76" s="8">
         <v>5.5469999999999997</v>
       </c>
@@ -2902,6 +3505,18 @@
       <c r="O77" s="2">
         <v>6.9770000000000003</v>
       </c>
+      <c r="P77" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>5.5330000000000004</v>
+      </c>
+      <c r="R77" s="2">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="S77" s="2">
+        <v>0.879</v>
+      </c>
       <c r="Z77" s="8">
         <v>5.5330000000000004</v>
       </c>
@@ -2916,6 +3531,18 @@
       <c r="O78" s="2">
         <v>6.48</v>
       </c>
+      <c r="P78" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>5.4850000000000003</v>
+      </c>
+      <c r="R78" s="2">
+        <v>1.252</v>
+      </c>
+      <c r="S78" s="2">
+        <v>0.93200000000000005</v>
+      </c>
       <c r="Z78" s="8">
         <v>5.4850000000000003</v>
       </c>
@@ -2930,6 +3557,18 @@
       <c r="O79" s="2">
         <v>5.9039999999999999</v>
       </c>
+      <c r="P79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>5.4740000000000002</v>
+      </c>
+      <c r="R79" s="2">
+        <v>1.484</v>
+      </c>
+      <c r="S79" s="2">
+        <v>1.319</v>
+      </c>
       <c r="Z79" s="8">
         <v>5.4740000000000002</v>
       </c>
@@ -2944,6 +3583,18 @@
       <c r="O80" s="2">
         <v>5.891</v>
       </c>
+      <c r="P80" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>5.4669999999999996</v>
+      </c>
+      <c r="R80" s="2">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="S80" s="2">
+        <v>0.88800000000000001</v>
+      </c>
       <c r="Z80" s="8">
         <v>5.4669999999999996</v>
       </c>
@@ -2958,6 +3609,18 @@
       <c r="O81" s="2">
         <v>5.7110000000000003</v>
       </c>
+      <c r="P81" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>5.4589999999999996</v>
+      </c>
+      <c r="R81" s="2">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="S81" s="2">
+        <v>1.095</v>
+      </c>
       <c r="Z81" s="8">
         <v>5.4589999999999996</v>
       </c>
@@ -2972,6 +3635,18 @@
       <c r="O82" s="2">
         <v>5.4850000000000003</v>
       </c>
+      <c r="P82" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>5.4249999999999998</v>
+      </c>
+      <c r="R82" s="2">
+        <v>1.9570000000000001</v>
+      </c>
+      <c r="S82" s="2">
+        <v>0.95399999999999996</v>
+      </c>
       <c r="Z82" s="8">
         <v>5.4249999999999998</v>
       </c>
@@ -2986,6 +3661,18 @@
       <c r="O83" s="2">
         <v>5.24</v>
       </c>
+      <c r="P83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>5.399</v>
+      </c>
+      <c r="R83" s="2">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="S83" s="2">
+        <v>0.82</v>
+      </c>
       <c r="Z83" s="8">
         <v>5.399</v>
       </c>
@@ -3000,6 +3687,18 @@
       <c r="O84" s="2">
         <v>5.14</v>
       </c>
+      <c r="P84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>5.3769999999999998</v>
+      </c>
+      <c r="R84" s="2">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="S84" s="2">
+        <v>1.0049999999999999</v>
+      </c>
       <c r="Z84" s="8">
         <v>5.3769999999999998</v>
       </c>
@@ -3014,6 +3713,18 @@
       <c r="O85" s="2">
         <v>4.6399999999999997</v>
       </c>
+      <c r="P85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>5.3769999999999998</v>
+      </c>
+      <c r="R85" s="2">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="S85" s="2">
+        <v>0.78300000000000003</v>
+      </c>
       <c r="Z85" s="8">
         <v>5.3769999999999998</v>
       </c>
@@ -3028,6 +3739,18 @@
       <c r="O86" s="2">
         <v>6.0709999999999997</v>
       </c>
+      <c r="P86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>5.3710000000000004</v>
+      </c>
+      <c r="R86" s="2">
+        <v>1.625</v>
+      </c>
+      <c r="S86" s="2">
+        <v>1.163</v>
+      </c>
       <c r="Z86" s="8">
         <v>5.3710000000000004</v>
       </c>
@@ -3042,6 +3765,18 @@
       <c r="O87" s="2">
         <v>5.3769999999999998</v>
       </c>
+      <c r="P87" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>5.33</v>
+      </c>
+      <c r="R87" s="2">
+        <v>1.476</v>
+      </c>
+      <c r="S87" s="2">
+        <v>0.94199999999999995</v>
+      </c>
       <c r="Z87" s="8">
         <v>5.33</v>
       </c>
@@ -3056,6 +3791,18 @@
       <c r="O88" s="2">
         <v>5.1550000000000002</v>
       </c>
+      <c r="P88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>5.24</v>
+      </c>
+      <c r="R88" s="2">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="S88" s="2">
+        <v>0.88300000000000001</v>
+      </c>
       <c r="Z88" s="8">
         <v>5.24</v>
       </c>
@@ -3070,6 +3817,18 @@
       <c r="O89" s="2">
         <v>4.516</v>
       </c>
+      <c r="P89" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="R89" s="2">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="S89" s="2">
+        <v>0.442</v>
+      </c>
       <c r="Z89" s="8">
         <v>5.2350000000000003</v>
       </c>
@@ -3084,6 +3843,18 @@
       <c r="O90" s="2">
         <v>4.3940000000000001</v>
       </c>
+      <c r="P90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>5.1989999999999998</v>
+      </c>
+      <c r="R90" s="2">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="S90" s="2">
+        <v>0.86299999999999999</v>
+      </c>
       <c r="Z90" s="8">
         <v>5.1989999999999998</v>
       </c>
@@ -3098,6 +3869,18 @@
       <c r="O91" s="2">
         <v>4.3620000000000001</v>
       </c>
+      <c r="P91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>5.1989999999999998</v>
+      </c>
+      <c r="R91" s="2">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="S91" s="2">
+        <v>0.64600000000000002</v>
+      </c>
       <c r="Z91" s="8">
         <v>5.1989999999999998</v>
       </c>
@@ -3112,6 +3895,18 @@
       <c r="O92" s="2">
         <v>3.7770000000000001</v>
       </c>
+      <c r="P92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>5.194</v>
+      </c>
+      <c r="R92" s="2">
+        <v>1.425</v>
+      </c>
+      <c r="S92" s="2">
+        <v>1.0880000000000001</v>
+      </c>
       <c r="Z92" s="8">
         <v>5.194</v>
       </c>
@@ -3126,6 +3921,18 @@
       <c r="O93" s="2">
         <v>2.4039999999999999</v>
       </c>
+      <c r="P93" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>5.173</v>
+      </c>
+      <c r="R93" s="2">
+        <v>1.458</v>
+      </c>
+      <c r="S93" s="2">
+        <v>1.093</v>
+      </c>
       <c r="Z93" s="8">
         <v>5.173</v>
       </c>
@@ -3140,6 +3947,18 @@
       <c r="O94" s="2">
         <v>5.2350000000000003</v>
       </c>
+      <c r="P94" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>5.1639999999999997</v>
+      </c>
+      <c r="R94" s="2">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="S94" s="2">
+        <v>0.621</v>
+      </c>
       <c r="Z94" s="8">
         <v>5.1639999999999997</v>
       </c>
@@ -3154,6 +3973,18 @@
       <c r="O95" s="2">
         <v>5.194</v>
       </c>
+      <c r="P95" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>5.1550000000000002</v>
+      </c>
+      <c r="R95" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="S95" s="2">
+        <v>0.61399999999999999</v>
+      </c>
       <c r="Z95" s="8">
         <v>5.1550000000000002</v>
       </c>
@@ -3168,6 +3999,18 @@
       <c r="O96" s="2">
         <v>5.1639999999999997</v>
       </c>
+      <c r="P96" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>5.14</v>
+      </c>
+      <c r="R96" s="2">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="S96" s="2">
+        <v>0.65400000000000003</v>
+      </c>
       <c r="Z96" s="8">
         <v>5.14</v>
       </c>
@@ -3182,6 +4025,18 @@
       <c r="O97" s="2">
         <v>5.1219999999999999</v>
       </c>
+      <c r="P97" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>5.1219999999999999</v>
+      </c>
+      <c r="R97" s="2">
+        <v>1.363</v>
+      </c>
+      <c r="S97" s="2">
+        <v>0.97</v>
+      </c>
       <c r="Z97" s="8">
         <v>5.1219999999999999</v>
       </c>
@@ -3196,6 +4051,18 @@
       <c r="O98" s="2">
         <v>5.0750000000000002</v>
       </c>
+      <c r="P98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>5.1219999999999999</v>
+      </c>
+      <c r="R98" s="2">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="S98" s="2">
+        <v>0.67</v>
+      </c>
       <c r="Z98" s="8">
         <v>5.1219999999999999</v>
       </c>
@@ -3210,6 +4077,18 @@
       <c r="O99" s="2">
         <v>5.048</v>
       </c>
+      <c r="P99" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>5.0839999999999996</v>
+      </c>
+      <c r="R99" s="2">
+        <v>1.411</v>
+      </c>
+      <c r="S99" s="2">
+        <v>1.081</v>
+      </c>
       <c r="Z99" s="8">
         <v>5.0839999999999996</v>
       </c>
@@ -3224,6 +4103,18 @@
       <c r="O100" s="2">
         <v>5.048</v>
       </c>
+      <c r="P100" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>5.0750000000000002</v>
+      </c>
+      <c r="R100" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="S100" s="2">
+        <v>0.40500000000000003</v>
+      </c>
       <c r="Z100" s="8">
         <v>5.0750000000000002</v>
       </c>
@@ -3238,6 +4129,18 @@
       <c r="O101" s="2">
         <v>5.0460000000000003</v>
       </c>
+      <c r="P101" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="R101" s="2">
+        <v>1.208</v>
+      </c>
+      <c r="S101" s="2">
+        <v>0.26800000000000002</v>
+      </c>
       <c r="Z101" s="8">
         <v>5.0599999999999996</v>
       </c>
@@ -3252,6 +4155,18 @@
       <c r="O102" s="2">
         <v>5.0030000000000001</v>
       </c>
+      <c r="P102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>5.048</v>
+      </c>
+      <c r="R102" s="2">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="S102" s="2">
+        <v>0.66</v>
+      </c>
       <c r="Z102" s="8">
         <v>5.048</v>
       </c>
@@ -3266,6 +4181,18 @@
       <c r="O103" s="2">
         <v>4.9580000000000002</v>
       </c>
+      <c r="P103" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>5.048</v>
+      </c>
+      <c r="R103" s="2">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="S103" s="2">
+        <v>0.67200000000000004</v>
+      </c>
       <c r="Z103" s="8">
         <v>5.048</v>
       </c>
@@ -3280,6 +4207,18 @@
       <c r="O104" s="2">
         <v>4.891</v>
       </c>
+      <c r="P104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>5.0460000000000003</v>
+      </c>
+      <c r="R104" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="S104" s="2">
+        <v>0.53</v>
+      </c>
       <c r="Z104" s="8">
         <v>5.0460000000000003</v>
       </c>
@@ -3294,6 +4233,18 @@
       <c r="O105" s="2">
         <v>4.8719999999999999</v>
       </c>
+      <c r="P105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>5.0030000000000001</v>
+      </c>
+      <c r="R105" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S105" s="2">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="Z105" s="8">
         <v>5.0030000000000001</v>
       </c>
@@ -3308,6 +4259,18 @@
       <c r="O106" s="2">
         <v>4.67</v>
       </c>
+      <c r="P106" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>4.9729999999999999</v>
+      </c>
+      <c r="R106" s="2">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="S106" s="2">
+        <v>0.61199999999999999</v>
+      </c>
       <c r="Z106" s="8">
         <v>4.9729999999999999</v>
       </c>
@@ -3322,6 +4285,18 @@
       <c r="O107" s="2">
         <v>4.6230000000000002</v>
       </c>
+      <c r="P107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>4.9580000000000002</v>
+      </c>
+      <c r="R107" s="2">
+        <v>1.4590000000000001</v>
+      </c>
+      <c r="S107" s="2">
+        <v>0.73799999999999999</v>
+      </c>
       <c r="Z107" s="8">
         <v>4.9580000000000002</v>
       </c>
@@ -3336,6 +4311,18 @@
       <c r="O108" s="2">
         <v>4.609</v>
       </c>
+      <c r="P108" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>4.9409999999999998</v>
+      </c>
+      <c r="R108" s="2">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="S108" s="2">
+        <v>0.68200000000000005</v>
+      </c>
       <c r="Z108" s="8">
         <v>4.9409999999999998</v>
       </c>
@@ -3350,6 +4337,18 @@
       <c r="O109" s="2">
         <v>4.6029999999999998</v>
       </c>
+      <c r="P109" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>4.9249999999999998</v>
+      </c>
+      <c r="R109" s="2">
+        <v>0</v>
+      </c>
+      <c r="S109" s="2">
+        <v>0.96799999999999997</v>
+      </c>
       <c r="Z109" s="8">
         <v>4.9249999999999998</v>
       </c>
@@ -3364,6 +4363,18 @@
       <c r="O110" s="2">
         <v>4.5519999999999996</v>
       </c>
+      <c r="P110" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>4.891</v>
+      </c>
+      <c r="R110" s="2">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="S110" s="2">
+        <v>0.56599999999999995</v>
+      </c>
       <c r="Z110" s="8">
         <v>4.891</v>
       </c>
@@ -3378,6 +4389,18 @@
       <c r="O111" s="2">
         <v>4.5430000000000001</v>
       </c>
+      <c r="P111" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>4.8879999999999999</v>
+      </c>
+      <c r="R111" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="S111" s="2">
+        <v>0.74099999999999999</v>
+      </c>
       <c r="Z111" s="8">
         <v>4.8879999999999999</v>
       </c>
@@ -3392,6 +4415,18 @@
       <c r="O112" s="2">
         <v>4.4790000000000001</v>
       </c>
+      <c r="P112" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>4.8719999999999999</v>
+      </c>
+      <c r="R112" s="2">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="S112" s="2">
+        <v>0.59499999999999997</v>
+      </c>
       <c r="Z112" s="8">
         <v>4.8719999999999999</v>
       </c>
@@ -3406,6 +4441,18 @@
       <c r="O113" s="2">
         <v>4.4589999999999996</v>
       </c>
+      <c r="P113" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>4.7439999999999998</v>
+      </c>
+      <c r="R113" s="2">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="S113" s="2">
+        <v>0.86499999999999999</v>
+      </c>
       <c r="Z113" s="8">
         <v>4.7439999999999998</v>
       </c>
@@ -3420,6 +4467,18 @@
       <c r="O114" s="2">
         <v>4.3959999999999999</v>
       </c>
+      <c r="P114" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>4.67</v>
+      </c>
+      <c r="R114" s="2">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="S114" s="2">
+        <v>0.56499999999999995</v>
+      </c>
       <c r="Z114" s="8">
         <v>4.67</v>
       </c>
@@ -3434,6 +4493,18 @@
       <c r="O115" s="2">
         <v>4.3390000000000004</v>
       </c>
+      <c r="P115" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="R115" s="2">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="S115" s="2">
+        <v>0.73199999999999998</v>
+      </c>
       <c r="Z115" s="8">
         <v>4.6399999999999997</v>
       </c>
@@ -3448,6 +4519,18 @@
       <c r="O116" s="2">
         <v>4.2510000000000003</v>
       </c>
+      <c r="P116" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>4.6230000000000002</v>
+      </c>
+      <c r="R116" s="2">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="S116" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
       <c r="Z116" s="8">
         <v>4.6230000000000002</v>
       </c>
@@ -3462,6 +4545,18 @@
       <c r="O117" s="2">
         <v>4.2409999999999997</v>
       </c>
+      <c r="P117" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>4.609</v>
+      </c>
+      <c r="R117" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="S117" s="2">
+        <v>0.47599999999999998</v>
+      </c>
       <c r="Z117" s="8">
         <v>4.609</v>
       </c>
@@ -3476,6 +4571,18 @@
       <c r="O118" s="2">
         <v>4.1529999999999996</v>
       </c>
+      <c r="P118" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>4.6029999999999998</v>
+      </c>
+      <c r="R118" s="2">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="S118" s="2">
+        <v>0.875</v>
+      </c>
       <c r="Z118" s="8">
         <v>4.6029999999999998</v>
       </c>
@@ -3490,6 +4597,18 @@
       <c r="O119" s="2">
         <v>4.1120000000000001</v>
       </c>
+      <c r="P119" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>4.5519999999999996</v>
+      </c>
+      <c r="R119" s="2">
+        <v>1.079</v>
+      </c>
+      <c r="S119" s="2">
+        <v>0.73199999999999998</v>
+      </c>
       <c r="Z119" s="8">
         <v>4.5519999999999996</v>
       </c>
@@ -3504,6 +4623,18 @@
       <c r="O120" s="2">
         <v>3.76</v>
       </c>
+      <c r="P120" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>4.5430000000000001</v>
+      </c>
+      <c r="R120" s="2">
+        <v>1.032</v>
+      </c>
+      <c r="S120" s="2">
+        <v>0.60499999999999998</v>
+      </c>
       <c r="Z120" s="8">
         <v>4.5430000000000001</v>
       </c>
@@ -3518,6 +4649,18 @@
       <c r="O121" s="2">
         <v>3.75</v>
       </c>
+      <c r="P121" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>4.516</v>
+      </c>
+      <c r="R121" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="S121" s="2">
+        <v>0.59599999999999997</v>
+      </c>
       <c r="Z121" s="8">
         <v>4.516</v>
       </c>
@@ -3532,6 +4675,18 @@
       <c r="O122" s="2">
         <v>3.702</v>
       </c>
+      <c r="P122" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q122" s="2">
+        <v>4.516</v>
+      </c>
+      <c r="R122" s="2">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="S122" s="2">
+        <v>0.41299999999999998</v>
+      </c>
       <c r="Z122" s="8">
         <v>4.516</v>
       </c>
@@ -3546,6 +4701,18 @@
       <c r="O123" s="2">
         <v>3.5739999999999998</v>
       </c>
+      <c r="P123" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>4.4829999999999997</v>
+      </c>
+      <c r="R123" s="2">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="S123" s="2">
+        <v>0.95699999999999996</v>
+      </c>
       <c r="Z123" s="8">
         <v>4.4829999999999997</v>
       </c>
@@ -3560,6 +4727,18 @@
       <c r="O124" s="2">
         <v>3.512</v>
       </c>
+      <c r="P124" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>4.4790000000000001</v>
+      </c>
+      <c r="R124" s="2">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="S124" s="2">
+        <v>0.48299999999999998</v>
+      </c>
       <c r="Z124" s="8">
         <v>4.4790000000000001</v>
       </c>
@@ -3574,6 +4753,18 @@
       <c r="O125" s="2">
         <v>3.4710000000000001</v>
       </c>
+      <c r="P125" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>4.4589999999999996</v>
+      </c>
+      <c r="R125" s="2">
+        <v>1.292</v>
+      </c>
+      <c r="S125" s="2">
+        <v>0.877</v>
+      </c>
       <c r="Z125" s="8">
         <v>4.4589999999999996</v>
       </c>
@@ -3588,6 +4779,18 @@
       <c r="O126" s="2">
         <v>3.2679999999999998</v>
       </c>
+      <c r="P126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q126" s="2">
+        <v>4.3959999999999999</v>
+      </c>
+      <c r="R126" s="2">
+        <v>1.274</v>
+      </c>
+      <c r="S126" s="2">
+        <v>0.78600000000000003</v>
+      </c>
       <c r="Z126" s="8">
         <v>4.3959999999999999</v>
       </c>
@@ -3601,6 +4804,18 @@
       </c>
       <c r="O127" s="2">
         <v>2.9950000000000001</v>
+      </c>
+      <c r="P127" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>4.3940000000000001</v>
+      </c>
+      <c r="R127" s="2">
+        <v>1.038</v>
+      </c>
+      <c r="S127" s="2">
+        <v>0.82899999999999996</v>
       </c>
       <c r="Z127" s="8">
         <v>4.3940000000000001</v>
@@ -3616,6 +4831,18 @@
       <c r="O128" s="2">
         <v>7.8209999999999997</v>
       </c>
+      <c r="P128" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>4.3620000000000001</v>
+      </c>
+      <c r="R128" s="2">
+        <v>1.415</v>
+      </c>
+      <c r="S128" s="2">
+        <v>0.93400000000000005</v>
+      </c>
       <c r="Z128" s="8">
         <v>4.3620000000000001</v>
       </c>
@@ -3630,6 +4857,18 @@
       <c r="O129" s="2">
         <v>7.6360000000000001</v>
       </c>
+      <c r="P129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>4.3390000000000004</v>
+      </c>
+      <c r="R129" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="S129" s="2">
+        <v>0.64500000000000002</v>
+      </c>
       <c r="Z129" s="8">
         <v>4.3390000000000004</v>
       </c>
@@ -3644,6 +4883,18 @@
       <c r="O130" s="2">
         <v>7.5570000000000004</v>
       </c>
+      <c r="P130" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q130" s="2">
+        <v>4.2880000000000003</v>
+      </c>
+      <c r="R130" s="2">
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="S130" s="2">
+        <v>0.73199999999999998</v>
+      </c>
       <c r="Z130" s="8">
         <v>4.2880000000000003</v>
       </c>
@@ -3658,6 +4909,18 @@
       <c r="O131" s="2">
         <v>7.5119999999999996</v>
       </c>
+      <c r="P131" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q131" s="2">
+        <v>4.2510000000000003</v>
+      </c>
+      <c r="R131" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="S131" s="2">
+        <v>0.50600000000000001</v>
+      </c>
       <c r="Z131" s="8">
         <v>4.2510000000000003</v>
       </c>
@@ -3672,6 +4935,18 @@
       <c r="O132" s="2">
         <v>7.415</v>
       </c>
+      <c r="P132" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q132" s="2">
+        <v>4.2409999999999997</v>
+      </c>
+      <c r="R132" s="2">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="S132" s="2">
+        <v>0.80900000000000005</v>
+      </c>
       <c r="Z132" s="8">
         <v>4.2409999999999997</v>
       </c>
@@ -3686,6 +4961,18 @@
       <c r="O133" s="2">
         <v>7.4039999999999999</v>
       </c>
+      <c r="P133" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q133" s="2">
+        <v>4.1970000000000001</v>
+      </c>
+      <c r="R133" s="2">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="S133" s="2">
+        <v>1.0429999999999999</v>
+      </c>
       <c r="Z133" s="8">
         <v>4.1970000000000001</v>
       </c>
@@ -3700,6 +4987,18 @@
       <c r="O134" s="2">
         <v>7.3840000000000003</v>
       </c>
+      <c r="P134" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q134" s="2">
+        <v>4.1529999999999996</v>
+      </c>
+      <c r="R134" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S134" s="2">
+        <v>0.86499999999999999</v>
+      </c>
       <c r="Z134" s="8">
         <v>4.1529999999999996</v>
       </c>
@@ -3714,6 +5013,18 @@
       <c r="O135" s="2">
         <v>7.3650000000000002</v>
       </c>
+      <c r="P135" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>4.1520000000000001</v>
+      </c>
+      <c r="R135" s="2">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="S135" s="2">
+        <v>0.72399999999999998</v>
+      </c>
       <c r="Z135" s="8">
         <v>4.1520000000000001</v>
       </c>
@@ -3728,6 +5039,18 @@
       <c r="O136" s="2">
         <v>7.0410000000000004</v>
       </c>
+      <c r="P136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q136" s="2">
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="R136" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="S136" s="2">
+        <v>0.32200000000000001</v>
+      </c>
       <c r="Z136" s="8">
         <v>4.1120000000000001</v>
       </c>
@@ -3742,6 +5065,18 @@
       <c r="O137" s="2">
         <v>7.0339999999999998</v>
       </c>
+      <c r="P137" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q137" s="2">
+        <v>3.7770000000000001</v>
+      </c>
+      <c r="R137" s="2">
+        <v>1.167</v>
+      </c>
+      <c r="S137" s="2">
+        <v>0.376</v>
+      </c>
       <c r="Z137" s="8">
         <v>3.7770000000000001</v>
       </c>
@@ -3756,6 +5091,18 @@
       <c r="O138" s="2">
         <v>6.9429999999999996</v>
       </c>
+      <c r="P138" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q138" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="R138" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="S138" s="2">
+        <v>0.57699999999999996</v>
+      </c>
       <c r="Z138" s="8">
         <v>3.76</v>
       </c>
@@ -3770,6 +5117,18 @@
       <c r="O139" s="2">
         <v>6.92</v>
       </c>
+      <c r="P139" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q139" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="R139" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="S139" s="2">
+        <v>0.27900000000000003</v>
+      </c>
       <c r="Z139" s="8">
         <v>3.75</v>
       </c>
@@ -3784,6 +5143,18 @@
       <c r="O140" s="2">
         <v>6.8049999999999997</v>
       </c>
+      <c r="P140" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q140" s="2">
+        <v>3.702</v>
+      </c>
+      <c r="R140" s="2">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="S140" s="2">
+        <v>0.59699999999999998</v>
+      </c>
       <c r="Z140" s="8">
         <v>3.702</v>
       </c>
@@ -3798,6 +5169,18 @@
       <c r="O141" s="2">
         <v>6.6870000000000003</v>
       </c>
+      <c r="P141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q141" s="2">
+        <v>3.5739999999999998</v>
+      </c>
+      <c r="R141" s="2">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="S141" s="2">
+        <v>0.41599999999999998</v>
+      </c>
       <c r="Z141" s="8">
         <v>3.5739999999999998</v>
       </c>
@@ -3812,6 +5195,18 @@
       <c r="O142" s="2">
         <v>6.63</v>
       </c>
+      <c r="P142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q142" s="2">
+        <v>3.512</v>
+      </c>
+      <c r="R142" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="S142" s="2">
+        <v>0.84799999999999998</v>
+      </c>
       <c r="Z142" s="8">
         <v>3.512</v>
       </c>
@@ -3826,6 +5221,18 @@
       <c r="O143" s="2">
         <v>6.476</v>
       </c>
+      <c r="P143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q143" s="2">
+        <v>3.4710000000000001</v>
+      </c>
+      <c r="R143" s="2">
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="S143" s="2">
+        <v>0.81499999999999995</v>
+      </c>
       <c r="Z143" s="8">
         <v>3.4710000000000001</v>
       </c>
@@ -3840,6 +5247,18 @@
       <c r="O144" s="2">
         <v>6.4669999999999996</v>
       </c>
+      <c r="P144" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q144" s="2">
+        <v>3.2679999999999998</v>
+      </c>
+      <c r="R144" s="2">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="S144" s="2">
+        <v>0.13300000000000001</v>
+      </c>
       <c r="Z144" s="8">
         <v>3.2679999999999998</v>
       </c>
@@ -3854,6 +5273,18 @@
       <c r="O145" s="2">
         <v>6.4470000000000001</v>
       </c>
+      <c r="P145" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q145" s="2">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="R145" s="2">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="S145" s="2">
+        <v>0.69</v>
+      </c>
       <c r="Z145" s="8">
         <v>2.9950000000000001</v>
       </c>
@@ -3868,6 +5299,18 @@
       <c r="O146" s="2">
         <v>6.016</v>
       </c>
+      <c r="P146" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q146" s="2">
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="R146" s="2">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="S146" s="2">
+        <v>0.498</v>
+      </c>
       <c r="Z146" s="8">
         <v>2.9550000000000001</v>
       </c>
@@ -3881,6 +5324,18 @@
       </c>
       <c r="O147" s="16">
         <v>7.1630000000000003</v>
+      </c>
+      <c r="P147" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q147" s="2">
+        <v>2.4039999999999999</v>
+      </c>
+      <c r="R147" s="2">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="S147" s="2">
+        <v>0</v>
       </c>
       <c r="Z147" s="11">
         <v>2.4039999999999999</v>
